--- a/biology/Zoologie/Hypselodoris_zephyra/Hypselodoris_zephyra.xlsx
+++ b/biology/Zoologie/Hypselodoris_zephyra/Hypselodoris_zephyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodoris  zephyra est une espèce de nudibranche du genre  Hypselodoris.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale ouest et centre de l'Océan Pacifique.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes jusqu'à la zone des 30 m de profondeur.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 6 cm.
 Le corps est allongé et de forme ovale, la jupe du manteau est étroite sauf sur la face antérieure ou elle forme un voile au-dessus de la cavité buccale.
@@ -609,7 +627,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet Hypselodoris est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
@@ -640,7 +660,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodoris zephyra se nourrit principalement d'éponges.
 </t>
